--- a/results/I3_N5_M3_T30_C200_DepLowerLeft_s2_P1_res.xlsx
+++ b/results/I3_N5_M3_T30_C200_DepLowerLeft_s2_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>250.6514380881763</v>
+        <v>1293.208678324441</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006000041961669922</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>27.21363927694955</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>11.09940128067582</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>11.09444032816691</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.06</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,61 @@
         <is>
           <t>alpha</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -634,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -645,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -780,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17.93504247831764</v>
+        <v>17.71826622296189</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17.27021167277385</v>
+        <v>18.38309702850568</v>
       </c>
     </row>
     <row r="5">
@@ -890,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>22.99312545677591</v>
+        <v>3.132299474826759</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>6.125424931602669</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.97645744572761</v>
+        <v>19.67685125555192</v>
       </c>
     </row>
     <row r="8">
@@ -914,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>26.12542493160267</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -922,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -930,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -972,6 +1027,118 @@
         <is>
           <t>y</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1240,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>192.0399999999998</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>177.55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>178.1100000000002</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>179.6099999999998</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1117,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>185.0799999999999</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
@@ -1128,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>151.0650000000013</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
@@ -1139,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>143.15</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14">
@@ -1150,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>141.6400000000013</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
@@ -1161,7 +1328,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>144.1900000000013</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
@@ -1172,7 +1339,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>145.6100000000013</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
@@ -1183,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>147.3399999999997</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18">
@@ -1194,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>159.2049999999997</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19">
@@ -1205,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>140.4299999999997</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
@@ -1216,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>157.7</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21">
@@ -1227,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>152.9949999999997</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>106.1700000000004</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23">
@@ -1249,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>112.4900000000004</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1260,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>102.5700000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1271,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>110.05</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -1282,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>107.6750000000004</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1293,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>46.62000000000073</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28">
@@ -1304,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>41.47500000000073</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29">
@@ -1315,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.92500000000073</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30">
@@ -1326,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>39.65500000000073</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -1337,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>43.76000000000073</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32">
@@ -1348,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>147.3399999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1359,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2049999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1370,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>140.4299999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1381,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>157.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1392,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>152.9949999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1403,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>192.0399999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1414,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>177.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1425,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>178.1099999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1436,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>179.6099999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1447,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>185.0799999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1458,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43">
@@ -1469,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44">
@@ -1480,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
@@ -1491,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
@@ -1502,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -1670,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -1681,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
@@ -1692,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -1703,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1750,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1761,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>2.635</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +1939,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4.825</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1783,7 +1950,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>4.09</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1794,7 +1961,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>4.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1805,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>6.82</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1816,7 +1983,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1827,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>12.97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1838,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>12.34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1849,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.07</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1860,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1871,7 +2038,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1882,7 +2049,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1893,7 +2060,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16">
@@ -1904,7 +2071,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1915,7 +2082,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
@@ -1937,7 +2104,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
@@ -1948,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
@@ -1959,7 +2126,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
@@ -1970,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>5.615</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1981,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>2.875</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1992,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2003,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2014,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.04</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2028,7 +2195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,6 +2220,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
